--- a/excel_helper/qwerty.xlsx
+++ b/excel_helper/qwerty.xlsx
@@ -10,6 +10,14 @@
     <sheet name="06.01.2022" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="08.01.2022" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="07.01.2022" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="26.01.2022" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="21.01.2022" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="05.01.2022" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="19.01.2022" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="27.01.2022" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="29.01.2022" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="13.01.2022" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12.01.2022" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -427,6 +435,415 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -541,6 +958,11 @@
           <t>Alex</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>fergthyjukjhgfd, тренер - Максим</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -561,6 +983,16 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>14-15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>defrgthyju, тренер - Максим</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>sdfvbgnh</t>
         </is>
       </c>
     </row>
@@ -902,4 +1334,709 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>court1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>court2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>court3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>7-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>8-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>13-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>14-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>15-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>16-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>18-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>19-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>20-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>21-22</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>